--- a/공대선이수/산시선이수.xlsx
+++ b/공대선이수/산시선이수.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sim\Desktop\창의문제해결프로젝트\선이수관계도\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BE71067-2543-477A-8FE2-56A711C43076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83338CBA-D3D6-42CF-8D7A-E3239BBC95E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{9A9BB214-0A0A-4D26-AD98-9C0AA82A7572}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -28,126 +37,123 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>후수교과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>선수교과목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미적분학및연습2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반화학및실험2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반화학및실험1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>응용통계학</t>
-  </si>
-  <si>
-    <t>미적분학및연습2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>미적분학및연습1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영과학1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영과학2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험계획법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>품질공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술경영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용통계학,공학경제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스분석설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>정보시스템분석설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스분석설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시뮬레이션과응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보시스템통합및실습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산업시스템프로그래밍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>정보시스템통합및실습</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의사결정분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융공학입문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유통물류관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업먀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산업시스템공학종합설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유통물류관리</t>
-  </si>
-  <si>
-    <t>경영과학1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터응용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>경영과학1,생산및운영관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>생산및운영관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술경영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공학경제,응용통계학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>의사결정분석</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시뮬레이션과 응용</t>
-  </si>
-  <si>
-    <t>프로젝트관리</t>
-  </si>
-  <si>
-    <t>금융공학입문</t>
-  </si>
-  <si>
-    <t>경영과학2</t>
-  </si>
-  <si>
-    <t>서비스공학</t>
-  </si>
-  <si>
-    <t>품질공학</t>
-  </si>
-  <si>
-    <t>실험계획법</t>
-  </si>
-  <si>
-    <t>산업시스템공학기초설계, 산업시스템프로그래밍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업시스템공학기초설계,산업시스템프로그래밍,경영과학1,정보시스템분석설계,시뮬레이션과응용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -167,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -175,28 +181,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{BC4FB44C-B1C5-4CB0-87D4-6C6A8458DD11}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -212,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -228,7 +243,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -240,7 +255,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -257,7 +272,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -287,12 +302,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -322,6 +354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -473,24 +522,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9935413-C0B4-46FD-80B9-B3A276D77C4A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -499,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -512,10 +561,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -523,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -531,115 +580,115 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>